--- a/temp/Biblioteca Términos.xlsx
+++ b/temp/Biblioteca Términos.xlsx
@@ -5,23 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Misoginos" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Misoginos Condicional" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Racista" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Racista Cond." sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Ideológico" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Ideológico Cond." sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Violento" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Violento Cond." sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Homofóbico" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Homofóbico Cond." sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Xenófobo" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Xenófobo Cond." sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Sobre Periodistas" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Otras Consideraciones" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Racista" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Ideológico" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Violento" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Homofóbico" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Xenófobo" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Sobre Periodistas" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Otras Consideraciones" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="294">
   <si>
     <t xml:space="preserve">Feminazis</t>
   </si>
@@ -119,9 +113,6 @@
     <t xml:space="preserve">Tortilleras</t>
   </si>
   <si>
-    <t xml:space="preserve">tilinga</t>
-  </si>
-  <si>
     <t xml:space="preserve">se quejan si las matan</t>
   </si>
   <si>
@@ -191,30 +182,36 @@
     <t xml:space="preserve">putas</t>
   </si>
   <si>
-    <t xml:space="preserve">gorda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">una menos</t>
-  </si>
-  <si>
     <t xml:space="preserve">tarada</t>
   </si>
   <si>
-    <t xml:space="preserve">sucias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pañuelo verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feminista</t>
+    <t xml:space="preserve">gorda,sucia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gorda,fea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gorda,horrible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gorda, asquerosa</t>
   </si>
   <si>
     <t xml:space="preserve">odio al hombre</t>
   </si>
   <si>
+    <t xml:space="preserve">feminista, plaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gordas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pañuelos verdes,asesinas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pañuelo verde,asesinas</t>
+  </si>
+  <si>
     <t xml:space="preserve">negros de mierda</t>
   </si>
   <si>
@@ -293,7 +290,7 @@
     <t xml:space="preserve">villera</t>
   </si>
   <si>
-    <t xml:space="preserve">plaga,villero</t>
+    <t xml:space="preserve">cabecitas negras</t>
   </si>
   <si>
     <t xml:space="preserve">Zurdos K</t>
@@ -404,13 +401,16 @@
     <t xml:space="preserve">porotista</t>
   </si>
   <si>
-    <t xml:space="preserve">Zurdos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de mierda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peronistas</t>
+    <t xml:space="preserve">macricat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El gato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gato</t>
   </si>
   <si>
     <t xml:space="preserve">prender fuego</t>
@@ -482,34 +482,31 @@
     <t xml:space="preserve">puta</t>
   </si>
   <si>
-    <t xml:space="preserve">tiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nuca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cabeza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entre ceja y ceja</t>
+    <t xml:space="preserve">plomo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiro,nuca</t>
   </si>
   <si>
     <t xml:space="preserve">te sangra</t>
   </si>
   <si>
-    <t xml:space="preserve">bala en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ceja y ceja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balazo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en la nuca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en la cabeza</t>
+    <t xml:space="preserve">bala,nuca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balazo, nuca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiro,cabeza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiro,ceja y ceja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balazo,cabeza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balazo,ceja y ceja</t>
   </si>
   <si>
     <t xml:space="preserve">tortilleras</t>
@@ -554,9 +551,6 @@
     <t xml:space="preserve">trolos</t>
   </si>
   <si>
-    <t xml:space="preserve">troles</t>
-  </si>
-  <si>
     <t xml:space="preserve">marica</t>
   </si>
   <si>
@@ -593,10 +587,7 @@
     <t xml:space="preserve">degenerados</t>
   </si>
   <si>
-    <t xml:space="preserve">homosexualidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inmoralidad</t>
+    <t xml:space="preserve">homosexualidad,inmoralidad</t>
   </si>
   <si>
     <t xml:space="preserve">depravacion</t>
@@ -605,28 +596,10 @@
     <t xml:space="preserve">trabas</t>
   </si>
   <si>
-    <t xml:space="preserve">gusta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">garompa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pija</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anormales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enfermos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pervertidos</t>
+    <t xml:space="preserve">raros,anormales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enermos,pervertidos</t>
   </si>
   <si>
     <t xml:space="preserve">tortilla</t>
@@ -638,19 +611,37 @@
     <t xml:space="preserve">maraca</t>
   </si>
   <si>
-    <t xml:space="preserve">perversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orden</t>
+    <t xml:space="preserve">perversión,orden</t>
   </si>
   <si>
     <t xml:space="preserve">lesbico</t>
   </si>
   <si>
-    <t xml:space="preserve">homosexualidad </t>
-  </si>
-  <si>
-    <t xml:space="preserve">enfermedad</t>
+    <t xml:space="preserve">homosexualidad,enfermedad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homosexualidad,enfermos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gays,enfermos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gays,matarlos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mostrándose,hijos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gusta,garompa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gusta,pija</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rompan el orto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gusta,chota</t>
   </si>
   <si>
     <t xml:space="preserve">peruca</t>
@@ -719,10 +710,10 @@
     <t xml:space="preserve">hermanos latinos</t>
   </si>
   <si>
-    <t xml:space="preserve">atenderse gratis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">limitrofes</t>
+    <t xml:space="preserve">atenderse gratis,hospitales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limitrofes,delinquir</t>
   </si>
   <si>
     <t xml:space="preserve">paraguayo</t>
@@ -731,19 +722,100 @@
     <t xml:space="preserve">Hitler</t>
   </si>
   <si>
-    <t xml:space="preserve">venezuela</t>
+    <t xml:space="preserve">venezuela, delincuentes</t>
   </si>
   <si>
     <t xml:space="preserve">Napalm</t>
   </si>
   <si>
-    <t xml:space="preserve">peruanos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colombianos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">senegaleses</t>
+    <t xml:space="preserve">peruanos,ladrones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colombianos,ladrones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bolivianos,ladrones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paraguayos,ladrones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">venezolanos,ladrones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peruanos,robar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colombianos,robar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bolivianos,robar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paraguayos,robar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">venezolanos,robar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peruanos,roban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colombianos,roban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bolivianos,roban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paraguayos,roban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">venezolanos,roban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peruanos,delincuentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colombianos,delincuentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bolivianos,delincuentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paraguayos,delincuentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">venezolanos,delincuentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peruanos,chorros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colombianos,chorros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bolivianos,chorros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paraguayos,chorros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">venezolanos,chorros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peruanos,matan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colombianos,matan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bolivianos,matan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paraguayos,matan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">venezolanos,matan</t>
   </si>
   <si>
     <t xml:space="preserve">Clarin</t>
@@ -807,6 +879,18 @@
   </si>
   <si>
     <t xml:space="preserve">En qué quedamos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta nota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">publinota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nota paga</t>
   </si>
   <si>
     <t xml:space="preserve">Se podría hacer que busque las variables "Nombre del medio" y/o "Periodista", "Autor", "Nombre del autor de la nota" y si es tóxico para analizar si injuria al autor o al medio</t>
@@ -1082,7 +1166,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A60"/>
+  <dimension ref="A1:A63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1245,7 +1329,7 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1299,7 +1383,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1309,17 +1393,17 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1349,7 +1433,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1359,27 +1443,27 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1389,8 +1473,23 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>51</v>
+      <c r="A60" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1404,161 +1503,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="14.43"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1571,112 +1521,137 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>207</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>208</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>209</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>210</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>211</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>212</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>213</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>214</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>215</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>216</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>217</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>218</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>219</v>
+      <c r="A15" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>220</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>221</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>222</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>223</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>224</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>225</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>226</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1690,71 +1665,230 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>228</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>229</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>230</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>231</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>232</v>
+      <c r="A6" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>233</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>234</v>
+      <c r="A8" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>235</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>236</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1768,12 +1902,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1786,107 +1920,162 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>238</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>239</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>240</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>241</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>242</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>243</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>244</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>245</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>246</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>247</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>248</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>249</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>250</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>251</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>252</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>253</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>254</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>255</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>257</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1900,7 +2089,761 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B47"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="14.43"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A59"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1919,27 +2862,27 @@
   <sheetData>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="10" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="4" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="4" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1947,859 +2890,7 @@
         <v>1558862174</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="14.43"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A22"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A38"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A23"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A24"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
-        <v>180</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
